--- a/TestData/shoProdData.xlsx
+++ b/TestData/shoProdData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afzau\source\repos\shoProd\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CABA47-3AF1-48E3-957D-AD1ED4199A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62830BC9-1773-4402-B688-75FC7B539C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD49C14-7770-45B6-826F-EACB22704A75}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>browser</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>http://49.249.28.218:8081/AppServer/Online_Shopping_Application/index.php</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE305888-FD8A-4FE1-8198-40B6F837A041}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,15 +441,18 @@
     <col min="2" max="2" width="67.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -448,15 +460,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
